--- a/experiment/nonconvex/MitsosBarton2006Ex313/compare/Fuertemente-Estacionario/MitsosBarton2006Ex313_Fuertemente-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/compare/Fuertemente-Estacionario/MitsosBarton2006Ex313_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-7.913571429897803</v>
       </c>
       <c r="E2">
-        <v>0.0852522</v>
+        <v>0.1557305</v>
       </c>
       <c r="F2">
-        <v>0.1266182</v>
+        <v>0.2156205</v>
       </c>
       <c r="G2">
-        <v>0.09438970925925926</v>
+        <v>0.17613684827586207</v>
       </c>
       <c r="H2">
         <v>16561</v>
